--- a/gun-low/Excel/WeaponProp_武器表.xlsx
+++ b/gun-low/Excel/WeaponProp_武器表.xlsx
@@ -34,10 +34,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,7 +78,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -83,11 +111,17 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,6 +474,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="23" min="23" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="24" min="24" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="25" min="25" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="26" min="26" style="0" width="16"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -453,25 +488,25 @@
         <v>string</v>
       </c>
       <c r="D1" s="1" t="str">
+        <v>string</v>
+      </c>
+      <c r="E1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="F1" s="1" t="str">
         <v>int[]</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="G1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="H1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="1" t="str">
+      <c r="I1" s="1" t="str">
         <v>string</v>
       </c>
-      <c r="I1" s="1" t="str">
+      <c r="J1" s="1" t="str">
         <v>string[]</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <v>int[]</v>
       </c>
       <c r="K1" s="1" t="str">
         <v>int[]</v>
@@ -483,31 +518,31 @@
         <v>int[]</v>
       </c>
       <c r="N1" s="1" t="str">
-        <v>int</v>
+        <v>int[]</v>
       </c>
       <c r="O1" s="1" t="str">
         <v>int</v>
       </c>
       <c r="P1" s="1" t="str">
-        <v>vector3</v>
+        <v>int</v>
       </c>
       <c r="Q1" s="1" t="str">
         <v>vector3</v>
       </c>
       <c r="R1" s="1" t="str">
-        <v>string</v>
+        <v>vector3</v>
       </c>
       <c r="S1" s="1" t="str">
         <v>string</v>
       </c>
       <c r="T1" s="1" t="str">
-        <v>string[]</v>
+        <v>string</v>
       </c>
       <c r="U1" s="1" t="str">
         <v>string[]</v>
       </c>
       <c r="V1" s="1" t="str">
-        <v>int[]</v>
+        <v>string[]</v>
       </c>
       <c r="W1" s="1" t="str">
         <v>int[]</v>
@@ -516,6 +551,9 @@
         <v>int[]</v>
       </c>
       <c r="Y1" s="1" t="str">
+        <v>int[]</v>
+      </c>
+      <c r="Z1" s="1" t="str">
         <v>int[]</v>
       </c>
     </row>
@@ -524,75 +562,78 @@
         <v>ID</v>
       </c>
       <c r="B2" s="1" t="str">
+        <v>Des</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <v>WeaponName</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="D2" s="1" t="str">
         <v>WeaponIcon</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="E2" s="1" t="str">
         <v>PriceType</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <v>WeaponPrices</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="G2" s="1" t="str">
         <v>PrefabId</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="H2" s="1" t="str">
         <v>SlotType</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <v>GunAttitude</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="J2" s="1" t="str">
         <v>NormalAnims</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="K2" s="1" t="str">
         <v>NormalAnimTimes</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="L2" s="1" t="str">
         <v>NormalAtkTime</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="M2" s="1" t="str">
         <v>NormalBulletCount</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="N2" s="1" t="str">
         <v>NormalFireInterval</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="O2" s="1" t="str">
         <v>BulletCount</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="P2" s="1" t="str">
         <v>Damage</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="Q2" s="1" t="str">
         <v>GunLoc</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="R2" s="1" t="str">
         <v>GunScale</v>
       </c>
-      <c r="R2" s="1" t="str">
+      <c r="S2" s="1" t="str">
         <v>ReloadAnimation</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="T2" s="1" t="str">
         <v>ReloadSound</v>
       </c>
-      <c r="T2" s="1" t="str">
+      <c r="U2" s="1" t="str">
         <v>SkillAnims</v>
       </c>
-      <c r="U2" s="1" t="str">
+      <c r="V2" s="1" t="str">
         <v>SkillAnimTimes</v>
       </c>
-      <c r="V2" s="1" t="str">
+      <c r="W2" s="1" t="str">
         <v>SkillAtkTime</v>
       </c>
-      <c r="W2" s="1" t="str">
+      <c r="X2" s="1" t="str">
         <v>SkillCDs</v>
       </c>
-      <c r="X2" s="1" t="str">
+      <c r="Y2" s="1" t="str">
         <v>SkillBulletCounts</v>
       </c>
-      <c r="Y2" s="1" t="str">
+      <c r="Z2" s="1" t="str">
         <v>SkillFireInterval</v>
       </c>
     </row>
@@ -604,93 +645,100 @@
         <v>武器名字</v>
       </c>
       <c r="C3" s="1" t="str">
+        <v>武器名字</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <v>武器ICON</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="E3" s="1" t="str">
         <v>价格类型
 0-免费
 1-金币|Ads
 2-Ads</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="F3" s="1" t="str">
         <v>武器价格</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>武器预制体</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="H3" s="1" t="str">
         <v>人形角色插槽类型
 LeftHand = 15-左手
 RightHand = 16-右手</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="I3" s="1" t="str">
         <v>持有武器姿态
 持有姿态-手枪-14037
 持有姿态-步枪-221620
 持有姿态-加特林-287706
 持有姿态-弓箭-20305</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="J3" s="1" t="str">
         <v>普通攻击动画
 手枪攻击动画-20244
 步枪攻击动画-99959
 加特林技能动画-218510
 弓箭攻击动画-121952|121955|121987|121989|121990</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>普攻动画时长</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>普通攻击时间点</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <v>普通攻击子弹数量</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <v>子弹发射间隔</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <v>子弹数量</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <v>伤害</v>
       </c>
-      <c r="P3" t="str">
+      <c r="Q3" t="str">
         <v>枪展示位置</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="R3" t="str">
         <v>枪缩放</v>
       </c>
-      <c r="R3" s="1" t="str">
+      <c r="S3" s="1" t="str">
         <v>换弹动画</v>
       </c>
-      <c r="S3" s="1" t="str">
+      <c r="T3" s="1" t="str">
         <v>换弹音效</v>
       </c>
-      <c r="T3" s="1" t="str">
+      <c r="U3" s="1" t="str">
         <v>技能动画
 手枪技能动画-20244
 步枪技能动画-99959
 加特林技能动画-218510
 弓箭技能动画-121981</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <v>技能动画时长</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <v>技能开火时间点</v>
       </c>
-      <c r="W3" t="str">
+      <c r="X3" t="str">
         <v>技能CD</v>
       </c>
-      <c r="X3" t="str">
+      <c r="Y3" t="str">
         <v>技能子弹数量</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Z3" t="str">
         <v>技能子弹发射间隔</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="4"/>
+    <row customHeight="true" ht="23" r="4">
+      <c r="C4" s="3" t="str">
+        <v>Language</v>
+      </c>
+    </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>1</v>
@@ -698,73 +746,76 @@
       <c r="B5" s="1" t="str">
         <v>手枪</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2" t="str">
+        <v>Pistol</v>
+      </c>
+      <c r="D5" s="1">
         <v>221099</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <v>6B813EDF4B3ADFAEBD7C86A9D6BA535C</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>14037</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>20244</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.4</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.2</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.01</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>10</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>35</v>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="Q5" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="R5" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>80588</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>75374</v>
       </c>
-      <c r="T5" s="1" t="str">
+      <c r="U5" s="1" t="str">
         <v>20244|20244|20244</v>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="V5" s="1" t="str">
         <v>0.2|0.4|0.6</v>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="W5" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="X5" s="1" t="str">
         <v>1|5|10</v>
       </c>
-      <c r="X5" s="1" t="str">
+      <c r="Y5" s="1" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Z5" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -775,73 +826,76 @@
       <c r="B6" s="1" t="str">
         <v>泡泡枪</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2" t="str">
+        <v>BubbleGun</v>
+      </c>
+      <c r="D6" s="1">
         <v>168811</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <v>15BDCB2E4E51C0050B9BC3AF33316ECD</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>16</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>14037</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>20244</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.2</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0.01</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>10</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>35</v>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="Q6" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="R6" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>80588</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>75374</v>
       </c>
-      <c r="T6" s="1" t="str">
+      <c r="U6" s="1" t="str">
         <v>20244|20244|20244</v>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="V6" s="1" t="str">
         <v>0.2|0.4|0.6</v>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="W6" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="X6" s="1" t="str">
         <v>1|5|10</v>
       </c>
-      <c r="X6" s="1" t="str">
+      <c r="Y6" s="1" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="Y6" s="1" t="str">
+      <c r="Z6" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -852,73 +906,76 @@
       <c r="B7" s="1" t="str">
         <v>散弹喷枪</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2" t="str">
+        <v>ShotgunSprayGun</v>
+      </c>
+      <c r="D7" s="1">
         <v>155702</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <v>1|8888</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <v>A963840C405ECBE7EBEC57BD46B26565</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>14037</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>20244</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.2</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>0.01</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>10</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>35</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="Q7" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q7" s="1" t="str">
+      <c r="R7" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>80588</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>75374</v>
       </c>
-      <c r="T7" s="1" t="str">
+      <c r="U7" s="1" t="str">
         <v>20244|20244|20244</v>
       </c>
-      <c r="U7" s="1" t="str">
+      <c r="V7" s="1" t="str">
         <v>0.2|0.4|0.6</v>
       </c>
-      <c r="V7" s="1" t="str">
+      <c r="W7" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="X7" s="1" t="str">
         <v>1|5|10</v>
       </c>
-      <c r="X7" s="1" t="str">
+      <c r="Y7" s="1" t="str">
         <v>1|2|3</v>
       </c>
-      <c r="Y7" s="1" t="str">
+      <c r="Z7" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -929,73 +986,76 @@
       <c r="B8" s="1" t="str">
         <v>霰弹枪</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2" t="str">
+        <v>Shotgun</v>
+      </c>
+      <c r="D8" s="1">
         <v>226214</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <v>1|18888</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <v>4FEDD6C54B0257242B22ECA4BE5099DA</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>16</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>221620</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>99959</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.18</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>0.01</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>30</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>25</v>
       </c>
-      <c r="P8" s="1" t="str">
+      <c r="Q8" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q8" s="1" t="str">
+      <c r="R8" s="1" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>80479</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>75374</v>
       </c>
-      <c r="T8" s="1" t="str">
+      <c r="U8" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U8" s="1" t="str">
+      <c r="V8" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V8" s="1" t="str">
+      <c r="W8" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W8" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X8" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y8" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z8" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1006,73 +1066,76 @@
       <c r="B9" t="str">
         <v>喷火枪</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2" t="str">
+        <v>SpitfireGun</v>
+      </c>
+      <c r="D9">
         <v>226213</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <v>1|18888</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <v>5AC24144451A25F4D04B3D8400D74B75</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>16</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>221620</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>99959</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.5</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.18</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>0.01</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>30</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>25</v>
       </c>
-      <c r="P9" s="1" t="str">
+      <c r="Q9" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q9" s="1" t="str">
+      <c r="R9" s="1" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>80479</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>75374</v>
       </c>
-      <c r="T9" s="1" t="str">
+      <c r="U9" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U9" s="1" t="str">
+      <c r="V9" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V9" s="1" t="str">
+      <c r="W9" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W9" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X9" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y9" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z9" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1083,73 +1146,76 @@
       <c r="B10" t="str">
         <v>手枪</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2" t="str">
+        <v>Pistol</v>
+      </c>
+      <c r="D10">
         <v>155696</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <v>1|18888</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <v>21361072458C51775137F086B3D59EA5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>16</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>221620</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>99959</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.5</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>0.18</v>
       </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>0.01</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>30</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>25</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="Q10" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q10" s="1" t="str">
+      <c r="R10" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>80479</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>75374</v>
       </c>
-      <c r="T10" s="1" t="str">
+      <c r="U10" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="V10" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V10" s="1" t="str">
+      <c r="W10" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W10" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X10" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y10" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z10" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1160,73 +1226,76 @@
       <c r="B11" t="str">
         <v>火枪</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2" t="str">
+        <v>FireGun</v>
+      </c>
+      <c r="D11">
         <v>122726</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="str">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="str">
         <v>2|28888</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <v>82B2ADED4C512F42721715BFF158D103</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>16</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>221620</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>99959</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>0.17</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11">
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>0.01</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>30</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>25</v>
       </c>
-      <c r="P11" s="1" t="str">
+      <c r="Q11" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q11" s="1" t="str">
+      <c r="R11" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>80479</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>75374</v>
       </c>
-      <c r="T11" s="1" t="str">
+      <c r="U11" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U11" s="1" t="str">
+      <c r="V11" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V11" s="1" t="str">
+      <c r="W11" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W11" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X11" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y11" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z11" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1237,73 +1306,76 @@
       <c r="B12" t="str">
         <v>激光枪</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2" t="str">
+        <v>LaserGun</v>
+      </c>
+      <c r="D12">
         <v>222534</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="str">
         <v>2|28888</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <v>493A3E1D4A6DFD265D8C1BA51A2010C6</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>16</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>221620</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>99959</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.5</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>0.17</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>0.01</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>30</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>25</v>
       </c>
-      <c r="P12" s="1" t="str">
+      <c r="Q12" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q12" s="1" t="str">
+      <c r="R12" s="1" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>80479</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>75374</v>
       </c>
-      <c r="T12" s="1" t="str">
+      <c r="U12" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U12" s="1" t="str">
+      <c r="V12" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V12" s="1" t="str">
+      <c r="W12" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W12" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X12" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y12" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z12" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1314,73 +1386,76 @@
       <c r="B13" t="str">
         <v>水枪</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2" t="str">
+        <v>WaterGun</v>
+      </c>
+      <c r="D13">
         <v>122716</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="str">
         <v>2|28888</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <v>FADED6DA480333DCE397E08486F6E12B</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>16</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>221620</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>99959</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>0.17</v>
       </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13">
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>0.01</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>30</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>25</v>
       </c>
-      <c r="P13" s="1" t="str">
+      <c r="Q13" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q13" s="1" t="str">
+      <c r="R13" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>80479</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>75374</v>
       </c>
-      <c r="T13" s="1" t="str">
+      <c r="U13" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U13" s="1" t="str">
+      <c r="V13" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V13" s="1" t="str">
+      <c r="W13" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W13" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X13" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y13" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z13" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1391,73 +1466,76 @@
       <c r="B14" t="str">
         <v>火箭发射器</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2" t="str">
+        <v>RocketLauncher</v>
+      </c>
+      <c r="D14">
         <v>226826</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="str">
         <v>2|28888</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <v>251FCDE54066648DD9228DA8593CABFE</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>16</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>221620</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>99959</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.5</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>0.16</v>
       </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14">
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>0.01</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>30</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>25</v>
       </c>
-      <c r="P14" s="1" t="str">
+      <c r="Q14" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q14" s="1" t="str">
+      <c r="R14" s="1" t="str">
         <v>1.5|1.5|1.5</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>80479</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>75374</v>
       </c>
-      <c r="T14" s="1" t="str">
+      <c r="U14" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U14" s="1" t="str">
+      <c r="V14" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V14" s="1" t="str">
+      <c r="W14" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W14" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X14" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y14" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z14" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1468,73 +1546,76 @@
       <c r="B15" t="str">
         <v>橘黄激光枪</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2" t="str">
+        <v>OrangeLaserGun</v>
+      </c>
+      <c r="D15">
         <v>95676</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="str">
         <v>2|28888</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <v>4F1B0735442C84A20C4C229746C0FB74</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>16</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>221620</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>99959</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.5</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>0.16</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15">
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>0.01</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>30</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>25</v>
       </c>
-      <c r="P15" s="1" t="str">
+      <c r="Q15" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q15" s="1" t="str">
+      <c r="R15" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>80479</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>75374</v>
       </c>
-      <c r="T15" s="1" t="str">
+      <c r="U15" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U15" s="1" t="str">
+      <c r="V15" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V15" s="1" t="str">
+      <c r="W15" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W15" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X15" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y15" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z15" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1545,73 +1626,76 @@
       <c r="B16" t="str">
         <v>加特林</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2" t="str">
+        <v>JustinGatlin</v>
+      </c>
+      <c r="D16">
         <v>320984</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="str">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="str">
         <v>2|28888</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <v>0B70A2E944C51B1851B5A4AADEAF5D7A</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>16</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>221620</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>99959</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.4</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>0.18</v>
       </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16">
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>0.01</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>100</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>20</v>
       </c>
-      <c r="P16" s="1" t="str">
+      <c r="Q16" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q16" s="1" t="str">
+      <c r="R16" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="1">
         <v>80479</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>75374</v>
       </c>
-      <c r="T16" s="1" t="str">
+      <c r="U16" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U16" s="1" t="str">
+      <c r="V16" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V16" s="1" t="str">
+      <c r="W16" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W16" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X16" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y16" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z16" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1622,73 +1706,76 @@
       <c r="B17" t="str">
         <v>激光枪</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2" t="str">
+        <v>LaserGun</v>
+      </c>
+      <c r="D17">
         <v>122720</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="str">
         <v>3|38888</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <v>06AB82414F7B76402C8B96961A2C34A0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>16</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>221620</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>99959</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.5</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.15</v>
       </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>0.01</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>30</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>35</v>
       </c>
-      <c r="P17" s="1" t="str">
+      <c r="Q17" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q17" s="1" t="str">
+      <c r="R17" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>80479</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>75374</v>
       </c>
-      <c r="T17" s="1" t="str">
+      <c r="U17" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U17" s="1" t="str">
+      <c r="V17" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V17" s="1" t="str">
+      <c r="W17" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W17" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X17" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y17" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z17" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1699,73 +1786,76 @@
       <c r="B18" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2" t="str">
+        <v>Tunas</v>
+      </c>
+      <c r="D18">
         <v>138213</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="str">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="str">
         <v>3|38888</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <v>E7C6A1FA4BB1FFDE6CAF78B69623C3A5</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>16</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>221620</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>99959</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.5</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>0.15</v>
       </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>0.01</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>30</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>35</v>
       </c>
-      <c r="P18" s="1" t="str">
+      <c r="Q18" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q18" s="1" t="str">
+      <c r="R18" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>80479</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>75374</v>
       </c>
-      <c r="T18" s="1" t="str">
+      <c r="U18" s="1" t="str">
         <v>99959|99959|99959</v>
       </c>
-      <c r="U18" s="1" t="str">
+      <c r="V18" s="1" t="str">
         <v>0.2|0.6|1</v>
       </c>
-      <c r="V18" s="1" t="str">
+      <c r="W18" s="1" t="str">
         <v>0.2|0.2|0.2</v>
       </c>
-      <c r="W18" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X18" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y18" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z18" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>
@@ -1776,73 +1866,76 @@
       <c r="B19" s="1" t="str">
         <v>弓箭</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2" t="str">
+        <v>BowAndArrow</v>
+      </c>
+      <c r="D19">
         <v>278406</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="str">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="str">
         <v>888|888888</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <v>2580BDD74D69D7F57E93E29E74B387B6</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>20305</v>
       </c>
-      <c r="I19" s="1" t="str">
+      <c r="J19" s="1" t="str">
         <v>121952|121955|121987|121989|121990</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="K19" s="1" t="str">
         <v>1.2|1.43|2.17|1.8|2.2</v>
       </c>
-      <c r="K19" s="1" t="str">
+      <c r="L19" s="1" t="str">
         <v>0.2|0.2|0.6|0.5|0.8</v>
       </c>
-      <c r="L19" s="1" t="str">
+      <c r="M19" s="1" t="str">
         <v>1|1|2|1|1</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="N19" s="1" t="str">
         <v>0.01|0.01|0.01|0.01|0.01</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>6</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>100</v>
       </c>
-      <c r="P19" s="1" t="str">
+      <c r="Q19" s="1" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q19" s="1" t="str">
+      <c r="R19" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>20228</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>75374</v>
       </c>
-      <c r="T19" s="1" t="str">
+      <c r="U19" s="1" t="str">
         <v>121981|121981|121981</v>
       </c>
-      <c r="U19" s="1" t="str">
+      <c r="V19" s="1" t="str">
         <v>2.47|2.47|2.47</v>
       </c>
-      <c r="V19" s="1" t="str">
+      <c r="W19" s="1" t="str">
         <v>1.05|1.05|1.05</v>
       </c>
-      <c r="W19" s="1" t="str">
-        <v>1|3|5</v>
-      </c>
       <c r="X19" s="1" t="str">
         <v>1|3|5</v>
       </c>
       <c r="Y19" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z19" s="1" t="str">
         <v>0.01|0.05|0.05</v>
       </c>
     </row>

--- a/gun-low/Excel/WeaponProp_武器表.xlsx
+++ b/gun-low/Excel/WeaponProp_武器表.xlsx
@@ -57,7 +57,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -78,7 +78,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -111,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -121,7 +128,10 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,7 +454,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane state="frozen" topLeftCell="A4" ySplit="3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
@@ -1556,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="str">
-        <v>2|28888</v>
+        <v>20|288888</v>
       </c>
       <c r="G15" t="str">
         <v>4F1B0735442C84A20C4C229746C0FB74</v>
@@ -1636,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="str">
-        <v>2|28888</v>
+        <v>10|288888</v>
       </c>
       <c r="G16" t="str">
         <v>0B70A2E944C51B1851B5A4AADEAF5D7A</v>
@@ -1716,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="str">
-        <v>3|38888</v>
+        <v>30|388888</v>
       </c>
       <c r="G17" t="str">
         <v>06AB82414F7B76402C8B96961A2C34A0</v>
@@ -1796,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="str">
-        <v>3|38888</v>
+        <v>30|388888</v>
       </c>
       <c r="G18" t="str">
         <v>E7C6A1FA4BB1FFDE6CAF78B69623C3A5</v>
@@ -1940,7 +1950,84 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="20">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <v>火箭筒</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <v>bazooka</v>
+      </c>
+      <c r="D20">
+        <v>327072</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <v>1688|8888888</v>
+      </c>
+      <c r="G20" t="str">
+        <v>F8252B8A468CDDEC27F5B2941E9E6E95</v>
+      </c>
+      <c r="H20" s="1">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1">
+        <v>221620</v>
+      </c>
+      <c r="J20">
+        <v>99959</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0.01</v>
+      </c>
+      <c r="O20" s="4">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>80479</v>
+      </c>
+      <c r="T20" s="1">
+        <v>75374</v>
+      </c>
+      <c r="U20" s="1" t="str">
+        <v>99959|99959|99959</v>
+      </c>
+      <c r="V20" s="1" t="str">
+        <v>0.2|0.6|1</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <v>0.2|0.2|0.2</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Y20" s="1" t="str">
+        <v>1|3|5</v>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <v>0.01|0.05|0.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
